--- a/500all/speech_level/speeches_CHRG-114hhrg95133.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95133.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="191">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,42 +52,27 @@
     <t>412400</t>
   </si>
   <si>
-    <t>Eric A. "Rick" Crawford</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Crawford. Thank you, Mr. Chairman. Heavenly Father, I do bow humbly before you, thankful for every blessing of life, Father, thankful for this nation that we have and the freedoms that we enjoy through your divine providence. Father, I just ask that you fill this body with wisdom and discernment and that all that is said and done be pleasing to you. I ask in Jesus' name, amen.    The Chairman. Thank you, Rick. This hearing of the Committee on Agriculture regarding the review of agricultural subsidies in foreign countries, will come to order. I am pleased to have two expert witnesses with us this morning to talk about the topic, and I will not steal any of their thunder, but it is important for us to observe several studies listing the high and rising subsidies, tariffs, and non-tariff barriers being thrown up by our trading partners. Two of the authors of these studies are with us today, and it is my understanding that some of the subsidies, tariffs, and non-tariff barriers they report are so blatant that they are clear violations of the countries' WTO commitments.    I hope everyone takes a close look at these studies because they underscore two things: First, the United States Government needs to stand up to the countries that fail to abide by their commitments, and, second, we need strong U.S. farm policy as a modest response to foreign competitors that cheat.    It is disturbing that as this Committee worked to produce a farm bill that significantly reformed U.S. farm policy, achieving an estimated $23 billion in savings, many of our biggest trading partners were apparently increasing to new heights their already high tariffs, subsidies, and other trade barriers.    This is a troubling development for three reasons. First, free markets are the most effective means for ordering our economy. Trade agreements foster free markets by establishing rules for all countries to follow. We all know and agree on these things. But when trading partners do not follow the rules that they agreed to and it goes unchallenged, two serious problems develop. One, the American farmer and rancher lose market opportunities they were promised. This hurts our farmers and ranchers, it harms our economy, and it costs American jobs. As a result of the first problem, the second problem arises, and that is America's farmers and ranchers lose faith in trade agreements. Given the current debate over TPA, it is safe to say that free trade cannot afford to lose the support of American agriculture. The United States Government must enforce our trade agreements.    Second, American agriculture is incredibly dependent on trade. We all know this and agree on it. For example, 80 to 85 percent of the American cotton crop each year is exported. If our trade agenda freezes up because American agriculture loses confidence in trade, the biggest losers under that scenario are America's farmers and ranchers. We cannot afford to let that happen. Rigorous enforcement of our rights under trade agreements is part of the solution, but addressing the double-standard that exists between developed and large, emerging economies is of vital importance as well.    The key to getting stalled multi-lateral efforts like the Doha Development Agenda back on track is recognizing the disproportionate impact trade-distorting subsidies from large, emerging economies are having on world prices.    And, finally, my part of the country is particularly dependent upon trade. Our biggest cash crop in Texas is cotton. Unfortunately, trade in the world cotton market is neither fair nor free. Communist China's Government controls most of the world market. And what China does not control, countries like India and Turkey fill in the void to make the global cotton market absolutely haywire. For instance, we saw world cotton prices reach a record level in 2011 as China pursued a policy of building up stocks to an historic level. And then we saw prices nose-dive toward the end of last year when the Chinese Government changed its mind. Prices for cotton remain low today, and according to USDA, the Chinese Government's change in course could mean many years of depressed world cotton prices. The U.S. Government must work to address these problems through the WTO, and it must also stand by America's cotton farmers while the situation is made right.    On a related note, concerning our largest competitors, I recently read a report that Brazil is deliberating a new challenge to U.S. farm policy, this time against corn and soybeans. Let me just say this: Brazil's case against U.S. cotton was without merit from start to finish, but the WTO was determined to rule in Brazil's favor no matter the facts and rules. The WTO must now work to right that wrong by being vigilant and wary in regard to Brazil's latest saber rattling, and the United States must defend its farmers in a world where trade manipulation and distortions by foreign governments often come at the expense of America's farmers.</t>
   </si>
   <si>
     <t>400316</t>
   </si>
   <si>
-    <t>Collin C. Peterson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Peterson. Thank you, Mr. Chairman. Thank you for calling this hearing. I think it is important that the Committee address this issue because what is often lost during these debates on our farm safety net is the fact that other countries also provide agriculture subsidies to producers and sometimes more than we do. If we are going to compete in the global marketplace, we need to be on a level playing field.    That being said, I am concerned that some of these so-called advanced, developing countries have started to increase their subsidies and are arguing that we should push ahead with negotiations in the Doha Round, and as I have told some people in the Administration and the negotiators, I just think the whole Doha concept is flawed. We have people in there that are developing countries that are not developing countries. They are subsidizing considerably more than people recognize. This is not going to--they need to scrap this whole thing and start over in my opinion.    Now, this idea that somehow or another you are going to fix everything by using trade to help these developing countries, in my opinion, was a flawed concept to start with.    So I don't know how we get back to doing something sensible there, but currently what is going on is not working. I don't think it is fair that these developing countries, no matter how advanced, can designate themselves for special treatment.    So based on the testimony of our witnesses, I think it is time for the United States to start challenging Brazil and China, India and others when they fail to make their WTO commitments. Now I realize that the testimony covers a lot of ground, but to the extent possible, I hope that our witnesses will be able to give us a little more guidance on specific subsidies that we should consider challenging and what our chances of winning such challenges might be. So I hope our witnesses will be able to address some of these questions, and I look forward to their testimony and yield back.    The Chairman. Thank you, Collin. I appreciate that. I welcome our witnesses to our hearing today. I appreciate the time and preparation you put into getting here. I will ask Vice Chair Randy Neugebauer to introduce Dr. Hudson, and then I will introduce Mr. Thorn.</t>
   </si>
   <si>
     <t>400441</t>
   </si>
   <si>
-    <t>Randy Neugebauer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Neugebauer. Well, thank you, Mr. Chairman, and thank you for holding this very important hearing. It is my honor to introduce Dr. Darren Hudson who is a Professor and the Larry Combest Chair at Texas Tech University. Go Raiders. It is good to have you here today. Dr. Hudson earned his B.S. at West Texas A&amp;M University and his M.S. and Ph.D. degrees in agricultural and applied economics from Texas Tech University. He has been a Professor at Mississippi State University and a Farm Foundation Fellow. Hudson's research interests include agricultural policy, trade, economic development, marketing, and consumer demand in behavioral economics, and he participates in the Food and Agricultural Policy Research Institute consortium producing annual baseline projections for cotton for the group. Hudson is the past President of the Southern Agricultural Economics Association. Dr. Hudson, it is a pleasure to have you here. We look forward to your testimony today.    The Chairman. Thank you and welcome Dr. Hudson. I would like to introduce Mr. Craig Thorn, Partner with DTB Associates, LLP, here in Washington, D.C. Dr. Hudson, the floor is yours.STATEMENT OF DARREN HUDSON, Ph.D., PROFESSOR AND LARRY COMBEST </t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Hudson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Hudson. Thank you, Mr. Chairman and honorable Members. Please accept my gratitude for this invitation to speak to you today on foreign ag subsidies. As Congressman Neugebauer said, I am the Larry Combest Endowed Chair in Agricultural Competitiveness, named after a former Chairman of this Committee, and I also am Director of the International Center for Agricultural Competitiveness at Texas Tech.    My testimony today is based on years of data accumulation and analysis and, to the best of my ability, an objective assessment of the state of agricultural subsidization globally.    We all know that the issue of subsidies is controversial and contentious. And some groups such as the Environmental Working Group, Oxfam, and others attempt to frame the issues in such a way as to highlight the impact of U.S. subsidies. But their logic and their arguments presuppose that the United States operates in a vacuum, or more specifically, that the United States is basically the only country subsidizing.    My objective today is to provide some perspective on global subsidies so we can analyze those policy issues more objectively.    Based on just looking at OECD data which are publicly available, we can see that in 2012 the United States fits basically into the middle ground of total subsidies provided. The OECD data are not comprehensive in a sense that it covers all countries but clearly indicates that subsidies are by no means a U.S.-only phenomenon.    In fact, if we look at this case, China is much larger as well as the EU in total subsidies provided. The single year is helpful to look at, but the second figure also shows the trend in support that has occurred over time, isolating the two big developing countries in OECD data, China and Brazil, and the United States for comparison.    So, clearly the United States' trend of support is down. The word is everybody on this Committee is fully aware. But developing country support is growing exponentially. What data are available outside of the OECD data set show similar trends in developing countries' support around the world.    Briefly, I think it is useful to understand the types of support that are offered. The most transparent are direct price supports through price and income. Countries like China, India, and Brazil have moved to utilizing direct price supports on several commodities. The EU by contrast offers direct income support. For comparison's sake, the EU offers Spanish cotton farmers a direct payment of =435 per hectare which is equivalent to 32\x0b per pound or 377 percent higher than the old United States direct payment to cotton producers.    The second major type are indirect subsidies which are subsidies on things like inputs, taxes and credits, R&amp;D, among other things that exist out there. Countries like Egypt, India, Mexico, Pakistan, Turkey, Uzbekistan, and Brazil all use these types of subsidies.    As an example, Brazil offers debts forgiveness, restructuring, and broadly offers low-interest rates to agricultural producers in 2011 to the tune of $64 billion. West Africa offers free seed worth $30 to $60 per acre. And India just recently announced this fiscal year they will provide $11 billion in fertilizer subsidies. So that gives you some perspective on the scope of those types of indirect subsidies.    Finally there are the implicit subsidies that exist through trade barriers, and although it is beyond the scope here, China, for example, has used a myriad of tariffs, quotas, domestic stock-piling, and other non-tariff barriers to support domestic corn, some cotton, soybean, and other agricultural prices.    Direct analysis of subsidies is often difficult because subsidies are supposed to be reported to the WTO. We are often years or even decades behind in reporting. China, for example, just caught up to 2010 in its reporting to the WTO.    We have however collected data on subsidy rates, and I provide a couple of examples here for cotton and corn. So if you look at China, in cotton, offers cotton producers in their most productive region a direct price support of $1.60 per pound. Compare that to a U.S. loan rate of 45\x0b to 52\x0b per pound depending on the adjusted world price, and that loan rate must be either repaid or the crop forfeited, unlike a direct price support that China offers. Even Brazil offers direct price supports well above U.S. levels, whether or not they are in effect depending on world price. Corn, as another example, China offers three times the PLC reference price for corn and much higher than that of the loan rate.    So if we look across a broad set of commodities globally, the data clearly show that the United States is often in the middle or bottom of the rankings. Overall, I hope this information shows that global subsidization is deep and broad and is an important part if we look at how we are going to handle or address these issues. Many countries treat agriculture as a strategic asset, and our failure to do so would put our producers at a competitive disadvantage.    Mr. Chairman, thank you.</t>
   </si>
   <si>
-    <t>Thorn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Thorn. Mr. Chairman and Members of the Committee, my name is Craig Thorn, and I am a Partner in the firm DTB Associates. Our firm represents a number of companies and trade associations in the agricultural sector. But I am here today in a personal capacity to present the results of a recent DTB study of agricultural subsidies in certain advanced developing countries.    Our study was prompted by trade problems our U.S. clients are encountering in world markets. For example, low-priced Turkish wheat flour displacing U.S. wheat exports in Asian markets and increased competition from exports of corn, rice, and wheat from Brazil. In investigating those issues, we learned that a number of large developing countries had significantly increased their support to farmers.    The run-up in subsidies began about a decade ago and has continued unabated. Support in the countries we examined is now higher than in most developed countries. I think you all have an old-fashioned handout that we distributed.    The first table in that handout shows support prices for wheat, corn, and rice compared with U.S. reference prices under the Price Loss Coverage Program. As you can see, support price levels are in most cases significantly higher in the five developing countries. But this comparison is actually unfair to the United States. The prices listed for the developing countries act as floor prices in the domestic market and incentive prices to the producer. Their governments use policy instruments such as government purchases and export subsidies to ensure that prices do not fall below the support level.    By contrast, as you know, reference prices in the United States trigger payments to producers linked to a fixed payment base. The PLC program is less production distorting because a producer is not required to plant a specific crop in order to receive payments and cannot increase payments by increasing production.    All five countries offer other forms of support as well such as input and credit subsidies and commodity-specific direct payments. Of course, the United States also has other programs, but the overall level of support for the products we covered was significantly higher in four of the five countries than in the United States. The exception is Brazil where the level of support is comparable.    These policies have a global impact. They have stimulated production, displaced imports and, in many cases, increased exports. For example, Indian rice exports have more than doubled since 2005 from 4.3 to 10 million metric tons. And China now requires importers of corn, wheat, and rice to purchase an equivalent quantity for domestic stocks.    The second table in the handout shows in the second column from the right our calculation of the level of support using the methodology specified in the WTO Agreement on Agriculture. We show a range in some cases because of methodological issues that we explain in our paper. The last column shows the support limit these countries accepted at the end of the Uruguay Round or when they joined the WTO. As you can see, they are all in violation of their obligations, in most cases by a large margin. Keep in mind that our study looks only at wheat, corn, and rice and in one case, sugar. Since all five countries have support programs for other commodities, our estimates of total AMS are almost certainly lower than the actual figures.    These issues are important to American farmers for obvious reasons. Subsidies in advanced developing countries are distorting world markets. The United States, the biggest agricultural exporter in the world, suffers most from these distortions. WTO members are currently discussing in Geneva a new work plan for negotiations on agriculture. American farmers would certainly benefit from a new WTO agreement that included additional disciplines on agricultural subsidies. However, some of the same countries that we cover in our report are insisting on a negotiating text that would require changes in U.S. policies but would do nothing to tighten the rules that apply to them. At the same time, India is arguing for rule changes that would significantly weaken those disciplines.    U.S. officials have been working to shine the light on these issues in Geneva. Unfortunately, there is no indication that advanced developing countries are ready to acknowledge the facts. In my opinion, it would be extremely foolish for the U.S. to agree to restart the negotiations until we have a plan to enforce existing rules and are convinced that any new disciplines would be targeted at the policies that are most responsible for current distortions.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -214,9 +199,6 @@
     <t>400220</t>
   </si>
   <si>
-    <t>Steve King</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. King. Thank you, Mr. Chairman. I thank the witnesses for your testimony. I would like to just gather first just a couple of big-picture things here and ask this question this way. Of all the subsidies going on with egg commodities and globally, if we got our way, which in my view would be everybody on exactly the level playing field. Let's just say all those subsidies disappeared overnight, and now we have an open global market that would make an adjustment, that would be abrupt, but it would stabilize. If it stabilized, once you get to that point, what then, first Dr. Hudson, would you predict happens to our commodity process? They go up or down? Generally, is food more expensive or cheaper if we don't have the subsidies distorting their production?</t>
   </si>
   <si>
@@ -289,9 +271,6 @@
     <t>412286</t>
   </si>
   <si>
-    <t>Ann Kirkpatrick</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Kirkpatrick. Thank you, Mr. Chairman. Mr. Thorn, I am intrigued with your statement on page 3 of your written testimony. When you talk about how China really has disregarded their agreement, you mentioned that they have increased rice subsidies by 100 percent since 2007. That is disturbing, and is it just because we are not paying attention or we don't have the resources to bring a case to the WTO? I would like to drill down a little bit more on why that has happened. We obviously know that it happened, but it seems like we are not doing anything about it.</t>
   </si>
   <si>
@@ -328,9 +307,6 @@
     <t>412463</t>
   </si>
   <si>
-    <t>Bob Gibbs</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gibbs. Thank you, Mr. Chairman, and also Mr. Chairman, thank you for holding this hearing. I think this is good. It brings out in the public view what is happening, how it affects American agriculture, and what other countries are doing with their producers.    I want to talk about corn a little bit because I am from Ohio and I notice we were talking about cotton, but looking at Dr. Hudson's chart here at the $1 a bushel equivalent, about $10 compared to the United States. Well, first I want to say when Mr. King's discussion of subsidies ended, you are absolutely right in your answers because subsidies, these high subsidy rates like corn as the example, they are subsidizing inefficiency. And so the inefficient producers are going to be chased out of the market, and you hit that on the nail.    My question going into this is if we are looking at tariffs and trade and all that. How does this, like China for example, and corn with that high subsidy level and I assume the tariffs are having on our corn coming into that country. How does that inter-react with the tariffs with their subsidy? I don't know who wants to jump in.</t>
   </si>
   <si>
@@ -415,9 +391,6 @@
     <t>412536</t>
   </si>
   <si>
-    <t>Rodney Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Davis. Thank you, Mr. Chairman. Thank you to both witnesses. I would like to start with Mr. Thorn. Mr. Thorn, it is rumored that Brazil is collecting evidence and planning to bring the WTO case against U.S. farm support programs. Obviously from your previous comments and the many questions my colleagues have brought forth, and they claim that U.S. farm subsidies are increasing which they think is going to further depress their markets. In considering this claim, it is important to address Brazil's use of domestic and export subsidies. And can you explain what types of support programs Brazil's farmers receive and what incentives are used to subsidize their exports?</t>
   </si>
   <si>
@@ -442,9 +415,6 @@
     <t>412557</t>
   </si>
   <si>
-    <t>Ann M. Kuster</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kuster. Thank you very much, Mr. Chairman, and thank you for appearing before us today. My question is maybe in a small corner of the world, but it is important to my State of New Hampshire. I have heard concerns from American dairy farmers including those in the Northeast about the potential for increased imports into our country of New Zealand dairy products and about a potential unfair advantage posed by New Zealand's largest dairy cooperative which controls over 90 percent of that country's dairy market. And I am interested in your opinion about the impact that this anti-competitive market structure could have on America's small and family-owned dairies and again, I said particularly in the Northeast but maybe in other parts of the country.</t>
   </si>
   <si>
@@ -463,9 +433,6 @@
     <t>412317</t>
   </si>
   <si>
-    <t>Glenn Thompson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Thompson. Mr. Chairman, Ranking Member, thank you for this hearing. I think it is very timely as we really get kind of an overview of some of the dynamics that are going on in terms of trade, especially when you prepare for a couple of trade agreements that have been a primary--consuming a lot of oxygen in our discussions right now and our thoughts, and I wanted to thank you both, gentlemen, for your testimony. As I read through your testimony and I heard your verbal testimony, compliance was an issue that came up. The compliance has been a discussion as we prepare for this next round of trade agreements. And it seemed like we have an opportunity to maybe put some measures in place, exercise the will of Congress within the trade promotional authority. Dr. Hudson, you had mentioned a very specific example in your written testimony of a lack of timely compliance when you talked about a key issue and specific analysis of subsidies that while notification of subsidy payments to WTO is required, requirements are rarely enforced. And you give an example where China just notified now its 2010 subsidy payment. So it is not real time, 5 year delay. The harm has already been imposed.    And so my question is more of a broader question looking forward as we have opportunities with the trade promotion authority or perhaps the customs bill that is out there as well. Do you have recommendations based on what we have learned and when it comes to compliance that we should be articulating as kind of ground rules? How do we get better enforcement of compliance? And what should we be asking for?</t>
   </si>
   <si>
@@ -481,9 +448,6 @@
     <t>412659</t>
   </si>
   <si>
-    <t>Stacey E. Plaskett</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Plaskett. Yes. Good morning. Thank you Mr. Chairman. Good morning, gentlemen. I first wanted to thank Mr. Thompson for his questions because that really goes to the heart of what I was really interested in is an overall notion about what is being done properly and not.    One of the questions I had for each one of you was if we were to in fact enforce the compliance measures that are already in the agreements, do you think we would be at a level playing field or do we need to go beyond those?</t>
   </si>
   <si>
@@ -526,9 +490,6 @@
     <t>412660</t>
   </si>
   <si>
-    <t>Dan Newhouse</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Newhouse. Thank you, Mr. Chairman, and thanks for having this hearing. I appreciate you guys being here today. This is timely as you know we are talking about trade agreements and so forth, and these are very important aspects of those.    I come from Washington State. We don't raise a lot of soybeans or cotton, certainly have wheat and corn. I used to have sugar. But we have a lot of specialty crops in our state, tree fruits, grapes, wines, certainly a lot of meat products come from our state as well.    Trade protection can take many, many forms, certainly subsidies are one but phytosanitary issues are another, tariffs, different kinds of things, inputs. So I guess the focus of my question is just generally, do you see other countries focusing on specialty crops more so than some of the other commodities? And is that a trend that you are seeing more of? And either one of you, both of you, please.</t>
   </si>
   <si>
@@ -547,9 +508,6 @@
     <t>412510</t>
   </si>
   <si>
-    <t>Doug LaMalfa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Newhouse.--surrounding the specialty crops. And you already answered in your first answer my second question that had to do with trade agreements and how that can help, and certainly that puts us in a better position, negotiating those and having a process to deal with the issues. So I appreciate very much again your testimony, and Mr. Chairman, thank you, and I yield back my time.    The Chairman. The gentleman yields back. Mr. LaMalfa, 5 minutes.    Mr. LaMalfa. Thank you, Mr. Chairman. With the recently-passed farm bill, the effect on U.S. growers and commodities was pretty dramatic with wiping away virtually if not all the direct payments, for good reason, were moving in a poor market direction. But with that becomes what we have seen last year or this current year is that with the insurance program in place, it does a pretty good job on ensuring against yield loss but not so great on upholding a price, especially a lot of it wasn't available in 2015 for many growers. And so what we are looking at is an even greater emphasis on price worldwide and maintaining that. And so earlier testimony--was it you, Dr. Hudson--that five percent of U.S. farm income is derived through subsidies. Were you the one that said that? Okay.    And so when we are looking at numbers that were mentioned earlier, like in China, when rice basically went 100 percent, 71 percent on wheat, 50 percent on corn, those are pretty big, distorting numbers. What percentage of income are you seeing is actually derived outside of those subsidies on Chinese crops or for Brazil for that matter? What percent of farm income is from those subsidies?</t>
   </si>
   <si>
@@ -596,9 +554,6 @@
   </si>
   <si>
     <t>412634</t>
-  </si>
-  <si>
-    <t>John R. Moolenaar</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Moolenaar. Thank you, Mr. Chairman. Gentlemen, thank you for being here with us today. Just so I understand, did you look at the issue of dairy at all or was that outside of the scope of your report?</t>
@@ -1030,11 +985,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1054,13 +1007,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1080,13 +1031,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1106,13 +1055,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1132,13 +1079,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1158,13 +1103,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1184,13 +1127,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>21</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1210,13 +1151,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1236,13 +1175,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
         <v>23</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1262,13 +1199,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1288,13 +1223,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1314,13 +1247,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1340,13 +1271,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1366,13 +1295,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1392,13 +1319,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1418,13 +1343,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1444,13 +1367,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1470,13 +1391,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1496,13 +1415,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1522,13 +1439,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1548,13 +1463,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1574,13 +1487,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1600,13 +1511,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1626,13 +1535,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1652,13 +1559,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1678,13 +1583,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1704,13 +1607,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1730,13 +1631,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1756,13 +1655,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1782,13 +1679,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1808,13 +1703,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1834,13 +1727,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1860,13 +1751,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1886,13 +1775,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1912,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1938,13 +1823,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1964,13 +1847,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1990,13 +1871,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2016,13 +1895,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2042,13 +1919,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2068,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2094,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2120,13 +1991,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2146,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2172,13 +2039,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2198,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
-      </c>
-      <c r="G47" t="s">
-        <v>66</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2224,13 +2087,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2250,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>65</v>
-      </c>
-      <c r="G49" t="s">
-        <v>66</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2276,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2302,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
         <v>65</v>
-      </c>
-      <c r="G51" t="s">
-        <v>66</v>
-      </c>
-      <c r="H51" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2328,13 +2183,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>65</v>
-      </c>
-      <c r="G52" t="s">
+        <v>60</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
         <v>66</v>
-      </c>
-      <c r="H52" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2354,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2380,13 +2231,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>65</v>
-      </c>
-      <c r="G54" t="s">
-        <v>66</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2406,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2432,13 +2279,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>65</v>
-      </c>
-      <c r="G56" t="s">
-        <v>66</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2458,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2484,13 +2327,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>65</v>
-      </c>
-      <c r="G58" t="s">
-        <v>66</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2510,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2536,13 +2375,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>65</v>
-      </c>
-      <c r="G60" t="s">
-        <v>66</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2562,13 +2399,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2588,13 +2423,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>65</v>
-      </c>
-      <c r="G62" t="s">
-        <v>66</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2614,13 +2447,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2640,13 +2471,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>65</v>
-      </c>
-      <c r="G64" t="s">
-        <v>66</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2666,13 +2495,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2692,13 +2519,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>65</v>
-      </c>
-      <c r="G66" t="s">
-        <v>66</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2718,13 +2543,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>65</v>
-      </c>
-      <c r="G67" t="s">
-        <v>66</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2744,13 +2567,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2770,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>65</v>
-      </c>
-      <c r="G69" t="s">
-        <v>66</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2796,13 +2615,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>90</v>
-      </c>
-      <c r="G70" t="s">
-        <v>91</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2822,13 +2639,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2848,13 +2663,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>90</v>
-      </c>
-      <c r="G72" t="s">
-        <v>91</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2874,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2900,13 +2711,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>90</v>
-      </c>
-      <c r="G74" t="s">
-        <v>91</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2926,13 +2735,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2952,13 +2759,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>90</v>
-      </c>
-      <c r="G76" t="s">
+        <v>84</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
         <v>91</v>
-      </c>
-      <c r="H76" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2978,13 +2783,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3004,13 +2807,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>90</v>
-      </c>
-      <c r="G78" t="s">
-        <v>91</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3030,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3056,13 +2855,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>90</v>
-      </c>
-      <c r="G80" t="s">
-        <v>91</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3082,13 +2879,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>103</v>
-      </c>
-      <c r="G81" t="s">
-        <v>104</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3108,13 +2903,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>20</v>
-      </c>
-      <c r="G82" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3134,13 +2927,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3160,13 +2951,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3186,13 +2975,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>103</v>
-      </c>
-      <c r="G85" t="s">
-        <v>104</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3212,13 +2999,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>20</v>
-      </c>
-      <c r="G86" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3238,13 +3023,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
+        <v>96</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
         <v>103</v>
-      </c>
-      <c r="G87" t="s">
-        <v>104</v>
-      </c>
-      <c r="H87" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3264,13 +3047,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3290,13 +3071,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>103</v>
-      </c>
-      <c r="G89" t="s">
-        <v>104</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3316,13 +3095,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3342,13 +3119,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>103</v>
-      </c>
-      <c r="G91" t="s">
-        <v>104</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3368,13 +3143,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3394,13 +3167,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
+        <v>96</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
         <v>103</v>
-      </c>
-      <c r="G93" t="s">
-        <v>104</v>
-      </c>
-      <c r="H93" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3420,13 +3191,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>20</v>
-      </c>
-      <c r="G94" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3446,13 +3215,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>103</v>
-      </c>
-      <c r="G95" t="s">
-        <v>104</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3472,13 +3239,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
-      </c>
-      <c r="G96" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3498,13 +3263,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>103</v>
-      </c>
-      <c r="G97" t="s">
-        <v>104</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3524,13 +3287,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>20</v>
-      </c>
-      <c r="G98" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3550,13 +3311,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>103</v>
-      </c>
-      <c r="G99" t="s">
-        <v>104</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3576,13 +3335,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3602,13 +3359,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>103</v>
-      </c>
-      <c r="G101" t="s">
-        <v>104</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3630,11 +3385,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3654,13 +3407,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3682,11 +3433,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3706,13 +3455,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>20</v>
-      </c>
-      <c r="G105" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3734,11 +3481,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3758,13 +3503,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
-      </c>
-      <c r="G107" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3784,13 +3527,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>20</v>
-      </c>
-      <c r="G108" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3812,11 +3553,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3836,13 +3575,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>132</v>
-      </c>
-      <c r="G110" t="s">
-        <v>133</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3862,13 +3599,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
-      </c>
-      <c r="G111" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3888,13 +3623,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>132</v>
-      </c>
-      <c r="G112" t="s">
-        <v>133</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3914,13 +3647,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>20</v>
-      </c>
-      <c r="G113" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3940,13 +3671,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>132</v>
-      </c>
-      <c r="G114" t="s">
-        <v>133</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3966,13 +3695,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>20</v>
-      </c>
-      <c r="G115" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3992,13 +3719,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>132</v>
-      </c>
-      <c r="G116" t="s">
-        <v>133</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4018,13 +3743,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>141</v>
-      </c>
-      <c r="G117" t="s">
-        <v>142</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4044,13 +3767,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>20</v>
-      </c>
-      <c r="G118" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4070,13 +3791,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>141</v>
-      </c>
-      <c r="G119" t="s">
-        <v>142</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4096,13 +3815,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>20</v>
-      </c>
-      <c r="G120" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4122,13 +3839,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>20</v>
-      </c>
-      <c r="G121" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4148,13 +3863,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>141</v>
-      </c>
-      <c r="G122" t="s">
-        <v>142</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4174,13 +3887,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>148</v>
-      </c>
-      <c r="G123" t="s">
-        <v>149</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4200,13 +3911,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>20</v>
-      </c>
-      <c r="G124" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4226,13 +3935,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>20</v>
-      </c>
-      <c r="G125" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4252,13 +3959,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>148</v>
-      </c>
-      <c r="G126" t="s">
-        <v>149</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4278,13 +3983,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>154</v>
-      </c>
-      <c r="G127" t="s">
-        <v>155</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4304,13 +4007,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>20</v>
-      </c>
-      <c r="G128" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4330,13 +4031,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>154</v>
-      </c>
-      <c r="G129" t="s">
-        <v>155</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4356,13 +4055,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>20</v>
-      </c>
-      <c r="G130" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4382,13 +4079,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>154</v>
-      </c>
-      <c r="G131" t="s">
-        <v>155</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4408,13 +4103,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>20</v>
-      </c>
-      <c r="G132" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4434,13 +4127,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>154</v>
-      </c>
-      <c r="G133" t="s">
-        <v>155</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4460,13 +4151,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>20</v>
-      </c>
-      <c r="G134" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4486,13 +4175,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>154</v>
-      </c>
-      <c r="G135" t="s">
-        <v>155</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4512,13 +4199,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>20</v>
-      </c>
-      <c r="G136" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4538,13 +4223,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
+        <v>143</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
         <v>154</v>
-      </c>
-      <c r="G137" t="s">
-        <v>155</v>
-      </c>
-      <c r="H137" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4564,13 +4247,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>20</v>
-      </c>
-      <c r="G138" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4590,13 +4271,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>154</v>
-      </c>
-      <c r="G139" t="s">
-        <v>155</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4616,13 +4295,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>169</v>
-      </c>
-      <c r="G140" t="s">
-        <v>170</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4642,13 +4319,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>20</v>
-      </c>
-      <c r="G141" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4668,13 +4343,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>169</v>
-      </c>
-      <c r="G142" t="s">
-        <v>170</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4694,13 +4367,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>20</v>
-      </c>
-      <c r="G143" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4720,13 +4391,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>169</v>
-      </c>
-      <c r="G144" t="s">
-        <v>170</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4746,13 +4415,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>20</v>
-      </c>
-      <c r="G145" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4772,13 +4439,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>176</v>
-      </c>
-      <c r="G146" t="s">
-        <v>177</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4798,13 +4463,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>20</v>
-      </c>
-      <c r="G147" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4824,13 +4487,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>176</v>
-      </c>
-      <c r="G148" t="s">
-        <v>177</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4850,13 +4511,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>20</v>
-      </c>
-      <c r="G149" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4876,13 +4535,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>176</v>
-      </c>
-      <c r="G150" t="s">
-        <v>177</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4902,13 +4559,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>20</v>
-      </c>
-      <c r="G151" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4928,13 +4583,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>176</v>
-      </c>
-      <c r="G152" t="s">
-        <v>177</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4954,13 +4607,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>20</v>
-      </c>
-      <c r="G153" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4980,13 +4631,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>176</v>
-      </c>
-      <c r="G154" t="s">
-        <v>177</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5006,13 +4655,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>20</v>
-      </c>
-      <c r="G155" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5032,13 +4679,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>176</v>
-      </c>
-      <c r="G156" t="s">
-        <v>177</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5058,13 +4703,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>20</v>
-      </c>
-      <c r="G157" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5084,13 +4727,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
+        <v>163</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
         <v>176</v>
-      </c>
-      <c r="G158" t="s">
-        <v>177</v>
-      </c>
-      <c r="H158" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5110,13 +4751,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>20</v>
-      </c>
-      <c r="G159" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5136,13 +4775,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>176</v>
-      </c>
-      <c r="G160" t="s">
-        <v>177</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5162,13 +4799,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>193</v>
-      </c>
-      <c r="G161" t="s">
-        <v>194</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5188,13 +4823,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>20</v>
-      </c>
-      <c r="G162" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5214,13 +4847,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>193</v>
-      </c>
-      <c r="G163" t="s">
-        <v>194</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5240,13 +4871,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>20</v>
-      </c>
-      <c r="G164" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5266,13 +4895,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>20</v>
-      </c>
-      <c r="G165" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5292,13 +4919,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>20</v>
-      </c>
-      <c r="G166" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5318,13 +4943,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>193</v>
-      </c>
-      <c r="G167" t="s">
-        <v>194</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5344,13 +4967,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>20</v>
-      </c>
-      <c r="G168" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5370,13 +4991,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>20</v>
-      </c>
-      <c r="G169" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5396,13 +5015,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>20</v>
-      </c>
-      <c r="G170" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5422,13 +5039,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>193</v>
-      </c>
-      <c r="G171" t="s">
-        <v>194</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95133.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95133.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="219">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,27 +55,51 @@
     <t>412400</t>
   </si>
   <si>
+    <t>Crawford</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Crawford. Thank you, Mr. Chairman. Heavenly Father, I do bow humbly before you, thankful for every blessing of life, Father, thankful for this nation that we have and the freedoms that we enjoy through your divine providence. Father, I just ask that you fill this body with wisdom and discernment and that all that is said and done be pleasing to you. I ask in Jesus' name, amen.    The Chairman. Thank you, Rick. This hearing of the Committee on Agriculture regarding the review of agricultural subsidies in foreign countries, will come to order. I am pleased to have two expert witnesses with us this morning to talk about the topic, and I will not steal any of their thunder, but it is important for us to observe several studies listing the high and rising subsidies, tariffs, and non-tariff barriers being thrown up by our trading partners. Two of the authors of these studies are with us today, and it is my understanding that some of the subsidies, tariffs, and non-tariff barriers they report are so blatant that they are clear violations of the countries' WTO commitments.    I hope everyone takes a close look at these studies because they underscore two things: First, the United States Government needs to stand up to the countries that fail to abide by their commitments, and, second, we need strong U.S. farm policy as a modest response to foreign competitors that cheat.    It is disturbing that as this Committee worked to produce a farm bill that significantly reformed U.S. farm policy, achieving an estimated $23 billion in savings, many of our biggest trading partners were apparently increasing to new heights their already high tariffs, subsidies, and other trade barriers.    This is a troubling development for three reasons. First, free markets are the most effective means for ordering our economy. Trade agreements foster free markets by establishing rules for all countries to follow. We all know and agree on these things. But when trading partners do not follow the rules that they agreed to and it goes unchallenged, two serious problems develop. One, the American farmer and rancher lose market opportunities they were promised. This hurts our farmers and ranchers, it harms our economy, and it costs American jobs. As a result of the first problem, the second problem arises, and that is America's farmers and ranchers lose faith in trade agreements. Given the current debate over TPA, it is safe to say that free trade cannot afford to lose the support of American agriculture. The United States Government must enforce our trade agreements.    Second, American agriculture is incredibly dependent on trade. We all know this and agree on it. For example, 80 to 85 percent of the American cotton crop each year is exported. If our trade agenda freezes up because American agriculture loses confidence in trade, the biggest losers under that scenario are America's farmers and ranchers. We cannot afford to let that happen. Rigorous enforcement of our rights under trade agreements is part of the solution, but addressing the double-standard that exists between developed and large, emerging economies is of vital importance as well.    The key to getting stalled multi-lateral efforts like the Doha Development Agenda back on track is recognizing the disproportionate impact trade-distorting subsidies from large, emerging economies are having on world prices.    And, finally, my part of the country is particularly dependent upon trade. Our biggest cash crop in Texas is cotton. Unfortunately, trade in the world cotton market is neither fair nor free. Communist China's Government controls most of the world market. And what China does not control, countries like India and Turkey fill in the void to make the global cotton market absolutely haywire. For instance, we saw world cotton prices reach a record level in 2011 as China pursued a policy of building up stocks to an historic level. And then we saw prices nose-dive toward the end of last year when the Chinese Government changed its mind. Prices for cotton remain low today, and according to USDA, the Chinese Government's change in course could mean many years of depressed world cotton prices. The U.S. Government must work to address these problems through the WTO, and it must also stand by America's cotton farmers while the situation is made right.    On a related note, concerning our largest competitors, I recently read a report that Brazil is deliberating a new challenge to U.S. farm policy, this time against corn and soybeans. Let me just say this: Brazil's case against U.S. cotton was without merit from start to finish, but the WTO was determined to rule in Brazil's favor no matter the facts and rules. The WTO must now work to right that wrong by being vigilant and wary in regard to Brazil's latest saber rattling, and the United States must defend its farmers in a world where trade manipulation and distortions by foreign governments often come at the expense of America's farmers.</t>
   </si>
   <si>
     <t>400316</t>
   </si>
   <si>
+    <t>Peterson</t>
+  </si>
+  <si>
+    <t>Collin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Peterson. Thank you, Mr. Chairman. Thank you for calling this hearing. I think it is important that the Committee address this issue because what is often lost during these debates on our farm safety net is the fact that other countries also provide agriculture subsidies to producers and sometimes more than we do. If we are going to compete in the global marketplace, we need to be on a level playing field.    That being said, I am concerned that some of these so-called advanced, developing countries have started to increase their subsidies and are arguing that we should push ahead with negotiations in the Doha Round, and as I have told some people in the Administration and the negotiators, I just think the whole Doha concept is flawed. We have people in there that are developing countries that are not developing countries. They are subsidizing considerably more than people recognize. This is not going to--they need to scrap this whole thing and start over in my opinion.    Now, this idea that somehow or another you are going to fix everything by using trade to help these developing countries, in my opinion, was a flawed concept to start with.    So I don't know how we get back to doing something sensible there, but currently what is going on is not working. I don't think it is fair that these developing countries, no matter how advanced, can designate themselves for special treatment.    So based on the testimony of our witnesses, I think it is time for the United States to start challenging Brazil and China, India and others when they fail to make their WTO commitments. Now I realize that the testimony covers a lot of ground, but to the extent possible, I hope that our witnesses will be able to give us a little more guidance on specific subsidies that we should consider challenging and what our chances of winning such challenges might be. So I hope our witnesses will be able to address some of these questions, and I look forward to their testimony and yield back.    The Chairman. Thank you, Collin. I appreciate that. I welcome our witnesses to our hearing today. I appreciate the time and preparation you put into getting here. I will ask Vice Chair Randy Neugebauer to introduce Dr. Hudson, and then I will introduce Mr. Thorn.</t>
   </si>
   <si>
     <t>400441</t>
   </si>
   <si>
+    <t>Neugebauer</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Neugebauer. Well, thank you, Mr. Chairman, and thank you for holding this very important hearing. It is my honor to introduce Dr. Darren Hudson who is a Professor and the Larry Combest Chair at Texas Tech University. Go Raiders. It is good to have you here today. Dr. Hudson earned his B.S. at West Texas A&amp;M University and his M.S. and Ph.D. degrees in agricultural and applied economics from Texas Tech University. He has been a Professor at Mississippi State University and a Farm Foundation Fellow. Hudson's research interests include agricultural policy, trade, economic development, marketing, and consumer demand in behavioral economics, and he participates in the Food and Agricultural Policy Research Institute consortium producing annual baseline projections for cotton for the group. Hudson is the past President of the Southern Agricultural Economics Association. Dr. Hudson, it is a pleasure to have you here. We look forward to your testimony today.    The Chairman. Thank you and welcome Dr. Hudson. I would like to introduce Mr. Craig Thorn, Partner with DTB Associates, LLP, here in Washington, D.C. Dr. Hudson, the floor is yours.STATEMENT OF DARREN HUDSON, Ph.D., PROFESSOR AND LARRY COMBEST </t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Hudson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Hudson. Thank you, Mr. Chairman and honorable Members. Please accept my gratitude for this invitation to speak to you today on foreign ag subsidies. As Congressman Neugebauer said, I am the Larry Combest Endowed Chair in Agricultural Competitiveness, named after a former Chairman of this Committee, and I also am Director of the International Center for Agricultural Competitiveness at Texas Tech.    My testimony today is based on years of data accumulation and analysis and, to the best of my ability, an objective assessment of the state of agricultural subsidization globally.    We all know that the issue of subsidies is controversial and contentious. And some groups such as the Environmental Working Group, Oxfam, and others attempt to frame the issues in such a way as to highlight the impact of U.S. subsidies. But their logic and their arguments presuppose that the United States operates in a vacuum, or more specifically, that the United States is basically the only country subsidizing.    My objective today is to provide some perspective on global subsidies so we can analyze those policy issues more objectively.    Based on just looking at OECD data which are publicly available, we can see that in 2012 the United States fits basically into the middle ground of total subsidies provided. The OECD data are not comprehensive in a sense that it covers all countries but clearly indicates that subsidies are by no means a U.S.-only phenomenon.    In fact, if we look at this case, China is much larger as well as the EU in total subsidies provided. The single year is helpful to look at, but the second figure also shows the trend in support that has occurred over time, isolating the two big developing countries in OECD data, China and Brazil, and the United States for comparison.    So, clearly the United States' trend of support is down. The word is everybody on this Committee is fully aware. But developing country support is growing exponentially. What data are available outside of the OECD data set show similar trends in developing countries' support around the world.    Briefly, I think it is useful to understand the types of support that are offered. The most transparent are direct price supports through price and income. Countries like China, India, and Brazil have moved to utilizing direct price supports on several commodities. The EU by contrast offers direct income support. For comparison's sake, the EU offers Spanish cotton farmers a direct payment of =435 per hectare which is equivalent to 32\x0b per pound or 377 percent higher than the old United States direct payment to cotton producers.    The second major type are indirect subsidies which are subsidies on things like inputs, taxes and credits, R&amp;D, among other things that exist out there. Countries like Egypt, India, Mexico, Pakistan, Turkey, Uzbekistan, and Brazil all use these types of subsidies.    As an example, Brazil offers debts forgiveness, restructuring, and broadly offers low-interest rates to agricultural producers in 2011 to the tune of $64 billion. West Africa offers free seed worth $30 to $60 per acre. And India just recently announced this fiscal year they will provide $11 billion in fertilizer subsidies. So that gives you some perspective on the scope of those types of indirect subsidies.    Finally there are the implicit subsidies that exist through trade barriers, and although it is beyond the scope here, China, for example, has used a myriad of tariffs, quotas, domestic stock-piling, and other non-tariff barriers to support domestic corn, some cotton, soybean, and other agricultural prices.    Direct analysis of subsidies is often difficult because subsidies are supposed to be reported to the WTO. We are often years or even decades behind in reporting. China, for example, just caught up to 2010 in its reporting to the WTO.    We have however collected data on subsidy rates, and I provide a couple of examples here for cotton and corn. So if you look at China, in cotton, offers cotton producers in their most productive region a direct price support of $1.60 per pound. Compare that to a U.S. loan rate of 45\x0b to 52\x0b per pound depending on the adjusted world price, and that loan rate must be either repaid or the crop forfeited, unlike a direct price support that China offers. Even Brazil offers direct price supports well above U.S. levels, whether or not they are in effect depending on world price. Corn, as another example, China offers three times the PLC reference price for corn and much higher than that of the loan rate.    So if we look across a broad set of commodities globally, the data clearly show that the United States is often in the middle or bottom of the rankings. Overall, I hope this information shows that global subsidization is deep and broad and is an important part if we look at how we are going to handle or address these issues. Many countries treat agriculture as a strategic asset, and our failure to do so would put our producers at a competitive disadvantage.    Mr. Chairman, thank you.</t>
   </si>
   <si>
+    <t>Thorn</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Thorn. Mr. Chairman and Members of the Committee, my name is Craig Thorn, and I am a Partner in the firm DTB Associates. Our firm represents a number of companies and trade associations in the agricultural sector. But I am here today in a personal capacity to present the results of a recent DTB study of agricultural subsidies in certain advanced developing countries.    Our study was prompted by trade problems our U.S. clients are encountering in world markets. For example, low-priced Turkish wheat flour displacing U.S. wheat exports in Asian markets and increased competition from exports of corn, rice, and wheat from Brazil. In investigating those issues, we learned that a number of large developing countries had significantly increased their support to farmers.    The run-up in subsidies began about a decade ago and has continued unabated. Support in the countries we examined is now higher than in most developed countries. I think you all have an old-fashioned handout that we distributed.    The first table in that handout shows support prices for wheat, corn, and rice compared with U.S. reference prices under the Price Loss Coverage Program. As you can see, support price levels are in most cases significantly higher in the five developing countries. But this comparison is actually unfair to the United States. The prices listed for the developing countries act as floor prices in the domestic market and incentive prices to the producer. Their governments use policy instruments such as government purchases and export subsidies to ensure that prices do not fall below the support level.    By contrast, as you know, reference prices in the United States trigger payments to producers linked to a fixed payment base. The PLC program is less production distorting because a producer is not required to plant a specific crop in order to receive payments and cannot increase payments by increasing production.    All five countries offer other forms of support as well such as input and credit subsidies and commodity-specific direct payments. Of course, the United States also has other programs, but the overall level of support for the products we covered was significantly higher in four of the five countries than in the United States. The exception is Brazil where the level of support is comparable.    These policies have a global impact. They have stimulated production, displaced imports and, in many cases, increased exports. For example, Indian rice exports have more than doubled since 2005 from 4.3 to 10 million metric tons. And China now requires importers of corn, wheat, and rice to purchase an equivalent quantity for domestic stocks.    The second table in the handout shows in the second column from the right our calculation of the level of support using the methodology specified in the WTO Agreement on Agriculture. We show a range in some cases because of methodological issues that we explain in our paper. The last column shows the support limit these countries accepted at the end of the Uruguay Round or when they joined the WTO. As you can see, they are all in violation of their obligations, in most cases by a large margin. Keep in mind that our study looks only at wheat, corn, and rice and in one case, sugar. Since all five countries have support programs for other commodities, our estimates of total AMS are almost certainly lower than the actual figures.    These issues are important to American farmers for obvious reasons. Subsidies in advanced developing countries are distorting world markets. The United States, the biggest agricultural exporter in the world, suffers most from these distortions. WTO members are currently discussing in Geneva a new work plan for negotiations on agriculture. American farmers would certainly benefit from a new WTO agreement that included additional disciplines on agricultural subsidies. However, some of the same countries that we cover in our report are insisting on a negotiating text that would require changes in U.S. policies but would do nothing to tighten the rules that apply to them. At the same time, India is arguing for rule changes that would significantly weaken those disciplines.    U.S. officials have been working to shine the light on these issues in Geneva. Unfortunately, there is no indication that advanced developing countries are ready to acknowledge the facts. In my opinion, it would be extremely foolish for the U.S. to agree to restart the negotiations until we have a plan to enforce existing rules and are convinced that any new disciplines would be targeted at the policies that are most responsible for current distortions.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -199,6 +226,12 @@
     <t>400220</t>
   </si>
   <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. King. Thank you, Mr. Chairman. I thank the witnesses for your testimony. I would like to just gather first just a couple of big-picture things here and ask this question this way. Of all the subsidies going on with egg commodities and globally, if we got our way, which in my view would be everybody on exactly the level playing field. Let's just say all those subsidies disappeared overnight, and now we have an open global market that would make an adjustment, that would be abrupt, but it would stabilize. If it stabilized, once you get to that point, what then, first Dr. Hudson, would you predict happens to our commodity process? They go up or down? Generally, is food more expensive or cheaper if we don't have the subsidies distorting their production?</t>
   </si>
   <si>
@@ -271,6 +304,12 @@
     <t>412286</t>
   </si>
   <si>
+    <t>Kirkpatrick</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Kirkpatrick. Thank you, Mr. Chairman. Mr. Thorn, I am intrigued with your statement on page 3 of your written testimony. When you talk about how China really has disregarded their agreement, you mentioned that they have increased rice subsidies by 100 percent since 2007. That is disturbing, and is it just because we are not paying attention or we don't have the resources to bring a case to the WTO? I would like to drill down a little bit more on why that has happened. We obviously know that it happened, but it seems like we are not doing anything about it.</t>
   </si>
   <si>
@@ -307,6 +346,12 @@
     <t>412463</t>
   </si>
   <si>
+    <t>Gibbs</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gibbs. Thank you, Mr. Chairman, and also Mr. Chairman, thank you for holding this hearing. I think this is good. It brings out in the public view what is happening, how it affects American agriculture, and what other countries are doing with their producers.    I want to talk about corn a little bit because I am from Ohio and I notice we were talking about cotton, but looking at Dr. Hudson's chart here at the $1 a bushel equivalent, about $10 compared to the United States. Well, first I want to say when Mr. King's discussion of subsidies ended, you are absolutely right in your answers because subsidies, these high subsidy rates like corn as the example, they are subsidizing inefficiency. And so the inefficient producers are going to be chased out of the market, and you hit that on the nail.    My question going into this is if we are looking at tariffs and trade and all that. How does this, like China for example, and corn with that high subsidy level and I assume the tariffs are having on our corn coming into that country. How does that inter-react with the tariffs with their subsidy? I don't know who wants to jump in.</t>
   </si>
   <si>
@@ -391,6 +436,12 @@
     <t>412536</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Rodney</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Davis. Thank you, Mr. Chairman. Thank you to both witnesses. I would like to start with Mr. Thorn. Mr. Thorn, it is rumored that Brazil is collecting evidence and planning to bring the WTO case against U.S. farm support programs. Obviously from your previous comments and the many questions my colleagues have brought forth, and they claim that U.S. farm subsidies are increasing which they think is going to further depress their markets. In considering this claim, it is important to address Brazil's use of domestic and export subsidies. And can you explain what types of support programs Brazil's farmers receive and what incentives are used to subsidize their exports?</t>
   </si>
   <si>
@@ -415,6 +466,9 @@
     <t>412557</t>
   </si>
   <si>
+    <t>Kuster</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Kuster. Thank you very much, Mr. Chairman, and thank you for appearing before us today. My question is maybe in a small corner of the world, but it is important to my State of New Hampshire. I have heard concerns from American dairy farmers including those in the Northeast about the potential for increased imports into our country of New Zealand dairy products and about a potential unfair advantage posed by New Zealand's largest dairy cooperative which controls over 90 percent of that country's dairy market. And I am interested in your opinion about the impact that this anti-competitive market structure could have on America's small and family-owned dairies and again, I said particularly in the Northeast but maybe in other parts of the country.</t>
   </si>
   <si>
@@ -433,6 +487,12 @@
     <t>412317</t>
   </si>
   <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Glenn</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Thompson. Mr. Chairman, Ranking Member, thank you for this hearing. I think it is very timely as we really get kind of an overview of some of the dynamics that are going on in terms of trade, especially when you prepare for a couple of trade agreements that have been a primary--consuming a lot of oxygen in our discussions right now and our thoughts, and I wanted to thank you both, gentlemen, for your testimony. As I read through your testimony and I heard your verbal testimony, compliance was an issue that came up. The compliance has been a discussion as we prepare for this next round of trade agreements. And it seemed like we have an opportunity to maybe put some measures in place, exercise the will of Congress within the trade promotional authority. Dr. Hudson, you had mentioned a very specific example in your written testimony of a lack of timely compliance when you talked about a key issue and specific analysis of subsidies that while notification of subsidy payments to WTO is required, requirements are rarely enforced. And you give an example where China just notified now its 2010 subsidy payment. So it is not real time, 5 year delay. The harm has already been imposed.    And so my question is more of a broader question looking forward as we have opportunities with the trade promotion authority or perhaps the customs bill that is out there as well. Do you have recommendations based on what we have learned and when it comes to compliance that we should be articulating as kind of ground rules? How do we get better enforcement of compliance? And what should we be asking for?</t>
   </si>
   <si>
@@ -448,6 +508,12 @@
     <t>412659</t>
   </si>
   <si>
+    <t>Plaskett</t>
+  </si>
+  <si>
+    <t>Stacey</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Plaskett. Yes. Good morning. Thank you Mr. Chairman. Good morning, gentlemen. I first wanted to thank Mr. Thompson for his questions because that really goes to the heart of what I was really interested in is an overall notion about what is being done properly and not.    One of the questions I had for each one of you was if we were to in fact enforce the compliance measures that are already in the agreements, do you think we would be at a level playing field or do we need to go beyond those?</t>
   </si>
   <si>
@@ -490,6 +556,12 @@
     <t>412660</t>
   </si>
   <si>
+    <t>Newhouse</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Newhouse. Thank you, Mr. Chairman, and thanks for having this hearing. I appreciate you guys being here today. This is timely as you know we are talking about trade agreements and so forth, and these are very important aspects of those.    I come from Washington State. We don't raise a lot of soybeans or cotton, certainly have wheat and corn. I used to have sugar. But we have a lot of specialty crops in our state, tree fruits, grapes, wines, certainly a lot of meat products come from our state as well.    Trade protection can take many, many forms, certainly subsidies are one but phytosanitary issues are another, tariffs, different kinds of things, inputs. So I guess the focus of my question is just generally, do you see other countries focusing on specialty crops more so than some of the other commodities? And is that a trend that you are seeing more of? And either one of you, both of you, please.</t>
   </si>
   <si>
@@ -508,6 +580,12 @@
     <t>412510</t>
   </si>
   <si>
+    <t>LaMalfa</t>
+  </si>
+  <si>
+    <t>Doug</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Newhouse.--surrounding the specialty crops. And you already answered in your first answer my second question that had to do with trade agreements and how that can help, and certainly that puts us in a better position, negotiating those and having a process to deal with the issues. So I appreciate very much again your testimony, and Mr. Chairman, thank you, and I yield back my time.    The Chairman. The gentleman yields back. Mr. LaMalfa, 5 minutes.    Mr. LaMalfa. Thank you, Mr. Chairman. With the recently-passed farm bill, the effect on U.S. growers and commodities was pretty dramatic with wiping away virtually if not all the direct payments, for good reason, were moving in a poor market direction. But with that becomes what we have seen last year or this current year is that with the insurance program in place, it does a pretty good job on ensuring against yield loss but not so great on upholding a price, especially a lot of it wasn't available in 2015 for many growers. And so what we are looking at is an even greater emphasis on price worldwide and maintaining that. And so earlier testimony--was it you, Dr. Hudson--that five percent of U.S. farm income is derived through subsidies. Were you the one that said that? Okay.    And so when we are looking at numbers that were mentioned earlier, like in China, when rice basically went 100 percent, 71 percent on wheat, 50 percent on corn, those are pretty big, distorting numbers. What percentage of income are you seeing is actually derived outside of those subsidies on Chinese crops or for Brazil for that matter? What percent of farm income is from those subsidies?</t>
   </si>
   <si>
@@ -554,6 +632,12 @@
   </si>
   <si>
     <t>412634</t>
+  </si>
+  <si>
+    <t>Moolenaar</t>
+  </si>
+  <si>
+    <t>John</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Moolenaar. Thank you, Mr. Chairman. Gentlemen, thank you for being here with us today. Just so I understand, did you look at the issue of dairy at all or was that outside of the scope of your report?</t>
@@ -935,7 +1019,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H171"/>
+  <dimension ref="A1:I171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -943,7 +1027,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -965,4085 +1049,4762 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
       <c r="H4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
         <v>17</v>
       </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s"/>
       <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
       <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
       <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>21</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>21</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G36" t="s">
+        <v>21</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G38" t="s">
+        <v>21</v>
+      </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G41" t="s">
+        <v>21</v>
+      </c>
       <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G47" t="s">
+        <v>70</v>
+      </c>
       <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>60</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G49" t="s">
+        <v>70</v>
+      </c>
       <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G51" t="s">
+        <v>70</v>
+      </c>
       <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G52" t="s">
+        <v>70</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G54" t="s">
+        <v>70</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>60</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G56" t="s">
+        <v>70</v>
+      </c>
       <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s">
+        <v>25</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>60</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G58" t="s">
+        <v>70</v>
+      </c>
       <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>60</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G60" t="s">
+        <v>70</v>
+      </c>
       <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G61" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>60</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G62" t="s">
+        <v>70</v>
+      </c>
       <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G63" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>60</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G64" t="s">
+        <v>70</v>
+      </c>
       <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G65" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>60</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G66" t="s">
+        <v>70</v>
+      </c>
       <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>60</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G67" t="s">
+        <v>70</v>
+      </c>
       <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G68" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>60</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G69" t="s">
+        <v>70</v>
+      </c>
       <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>84</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G70" t="s">
+        <v>96</v>
+      </c>
       <c r="H70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G71" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>84</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G72" t="s">
+        <v>96</v>
+      </c>
       <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G73" t="s">
+        <v>27</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>84</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G74" t="s">
+        <v>96</v>
+      </c>
       <c r="H74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>84</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G76" t="s">
+        <v>96</v>
+      </c>
       <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>84</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G78" t="s">
+        <v>96</v>
+      </c>
       <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s">
+        <v>25</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>84</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G80" t="s">
+        <v>96</v>
+      </c>
       <c r="H80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>96</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G81" t="s">
+        <v>110</v>
+      </c>
       <c r="H81" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G82" t="s">
+        <v>27</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s">
+        <v>25</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G84" t="s">
+        <v>27</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>96</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G85" t="s">
+        <v>110</v>
+      </c>
       <c r="H85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>17</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G86" t="s">
+        <v>27</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>96</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G87" t="s">
+        <v>110</v>
+      </c>
       <c r="H87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G88" t="s">
+        <v>27</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>96</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G89" t="s">
+        <v>110</v>
+      </c>
       <c r="H89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I89" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s">
+        <v>27</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>96</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G91" t="s">
+        <v>110</v>
+      </c>
       <c r="H91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s">
+        <v>27</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>96</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G93" t="s">
+        <v>110</v>
+      </c>
       <c r="H93" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I93" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G94" t="s">
+        <v>27</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>96</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G95" t="s">
+        <v>110</v>
+      </c>
       <c r="H95" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I95" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>17</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s">
+        <v>27</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>96</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G97" t="s">
+        <v>110</v>
+      </c>
       <c r="H97" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="I97" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s">
+        <v>27</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>96</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G99" t="s">
+        <v>110</v>
+      </c>
       <c r="H99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G100" t="s">
+        <v>27</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>96</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G101" t="s">
+        <v>110</v>
+      </c>
       <c r="H101" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
       <c r="H102" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>17</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G103" t="s">
+        <v>27</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
       <c r="H104" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>17</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G105" t="s">
+        <v>27</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>13</v>
+      </c>
       <c r="H106" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>17</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G107" t="s">
+        <v>25</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>17</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G108" t="s">
+        <v>27</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
       <c r="H109" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>124</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G110" t="s">
+        <v>140</v>
+      </c>
       <c r="H110" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I110" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>17</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G111" t="s">
+        <v>27</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>124</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G112" t="s">
+        <v>140</v>
+      </c>
       <c r="H112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I112" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>17</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G113" t="s">
+        <v>25</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>124</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G114" t="s">
+        <v>140</v>
+      </c>
       <c r="H114" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I114" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>17</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G115" t="s">
+        <v>25</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>124</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G116" t="s">
+        <v>140</v>
+      </c>
       <c r="H116" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I116" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>132</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G117" t="s">
+        <v>150</v>
+      </c>
       <c r="H117" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I117" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>17</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G118" t="s">
+        <v>27</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>132</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G119" t="s">
+        <v>150</v>
+      </c>
       <c r="H119" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I119" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>17</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G120" t="s">
+        <v>27</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>17</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G121" t="s">
+        <v>27</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>132</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G122" t="s">
+        <v>150</v>
+      </c>
       <c r="H122" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I122" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>138</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="G123" t="s">
+        <v>157</v>
+      </c>
       <c r="H123" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I123" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>17</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G124" t="s">
+        <v>27</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>17</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G125" t="s">
+        <v>25</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>138</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="G126" t="s">
+        <v>157</v>
+      </c>
       <c r="H126" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I126" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>143</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G127" t="s">
+        <v>164</v>
+      </c>
       <c r="H127" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I127" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>17</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G128" t="s">
+        <v>25</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>143</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G129" t="s">
+        <v>164</v>
+      </c>
       <c r="H129" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I129" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>17</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G130" t="s">
+        <v>27</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>143</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G131" t="s">
+        <v>164</v>
+      </c>
       <c r="H131" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I131" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>17</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G132" t="s">
+        <v>27</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>143</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G133" t="s">
+        <v>164</v>
+      </c>
       <c r="H133" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I133" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>17</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G134" t="s">
+        <v>27</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>143</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G135" t="s">
+        <v>164</v>
+      </c>
       <c r="H135" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I135" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>17</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G136" t="s">
+        <v>25</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>143</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G137" t="s">
+        <v>164</v>
+      </c>
       <c r="H137" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I137" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>17</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G138" t="s">
+        <v>25</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>143</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="G139" t="s">
+        <v>164</v>
+      </c>
       <c r="H139" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I139" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>157</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G140" t="s">
+        <v>180</v>
+      </c>
       <c r="H140" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I140" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>17</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G141" t="s">
+        <v>27</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>157</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G142" t="s">
+        <v>180</v>
+      </c>
       <c r="H142" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I142" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>17</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G143" t="s">
+        <v>25</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>157</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G144" t="s">
+        <v>180</v>
+      </c>
       <c r="H144" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I144" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>17</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G145" t="s">
+        <v>27</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>163</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>187</v>
+      </c>
+      <c r="G146" t="s">
+        <v>188</v>
+      </c>
       <c r="H146" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I146" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>17</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G147" t="s">
+        <v>25</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>163</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>187</v>
+      </c>
+      <c r="G148" t="s">
+        <v>188</v>
+      </c>
       <c r="H148" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I148" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>17</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G149" t="s">
+        <v>25</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>163</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>187</v>
+      </c>
+      <c r="G150" t="s">
+        <v>188</v>
+      </c>
       <c r="H150" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I150" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>17</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G151" t="s">
+        <v>25</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>163</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>187</v>
+      </c>
+      <c r="G152" t="s">
+        <v>188</v>
+      </c>
       <c r="H152" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I152" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>17</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G153" t="s">
+        <v>25</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>163</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>187</v>
+      </c>
+      <c r="G154" t="s">
+        <v>188</v>
+      </c>
       <c r="H154" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I154" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>17</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G155" t="s">
+        <v>25</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>163</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>187</v>
+      </c>
+      <c r="G156" t="s">
+        <v>188</v>
+      </c>
       <c r="H156" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I156" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>17</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G157" t="s">
+        <v>27</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>163</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>187</v>
+      </c>
+      <c r="G158" t="s">
+        <v>188</v>
+      </c>
       <c r="H158" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I158" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>17</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G159" t="s">
+        <v>27</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>163</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>187</v>
+      </c>
+      <c r="G160" t="s">
+        <v>188</v>
+      </c>
       <c r="H160" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I160" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>179</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>205</v>
+      </c>
+      <c r="G161" t="s">
+        <v>206</v>
+      </c>
       <c r="H161" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>207</v>
+      </c>
+      <c r="I161" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>17</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G162" t="s">
+        <v>25</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>179</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>205</v>
+      </c>
+      <c r="G163" t="s">
+        <v>206</v>
+      </c>
       <c r="H163" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>207</v>
+      </c>
+      <c r="I163" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>17</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G164" t="s">
+        <v>25</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>17</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G165" t="s">
+        <v>27</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>17</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G166" t="s">
+        <v>25</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>179</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>205</v>
+      </c>
+      <c r="G167" t="s">
+        <v>206</v>
+      </c>
       <c r="H167" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>207</v>
+      </c>
+      <c r="I167" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>17</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G168" t="s">
+        <v>27</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>17</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G169" t="s">
+        <v>25</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>17</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G170" t="s">
+        <v>27</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>179</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>205</v>
+      </c>
+      <c r="G171" t="s">
+        <v>206</v>
+      </c>
       <c r="H171" t="s">
-        <v>190</v>
+        <v>207</v>
+      </c>
+      <c r="I171" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95133.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95133.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="223">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412400</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Crawford</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400316</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Peterson</t>
   </si>
   <si>
@@ -77,6 +86,9 @@
   </si>
   <si>
     <t>400441</t>
+  </si>
+  <si>
+    <t>Vice Chair</t>
   </si>
   <si>
     <t>Neugebauer</t>
@@ -1019,7 +1031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I171"/>
+  <dimension ref="A1:J171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,7 +1039,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1052,4759 +1064,5096 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="I12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G32" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H32" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G34" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H34" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G36" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G38" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H38" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" t="s">
-        <v>25</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G41" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H41" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" t="s">
-        <v>25</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" t="s">
-        <v>25</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G47" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" t="s">
-        <v>25</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G49" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" t="s">
-        <v>25</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G51" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G52" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" t="s">
-        <v>27</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G54" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G56" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" t="s">
-        <v>25</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G58" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" t="s">
-        <v>27</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G60" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>24</v>
-      </c>
-      <c r="G61" t="s">
-        <v>27</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>31</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G62" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I62" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>24</v>
-      </c>
-      <c r="G63" t="s">
-        <v>27</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>31</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G64" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65" t="s">
-        <v>27</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>31</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G66" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I66" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G67" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68" t="s">
-        <v>27</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>31</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G69" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I69" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G70" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I70" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G71" t="s">
-        <v>27</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>31</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G72" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I72" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>24</v>
-      </c>
-      <c r="G73" t="s">
-        <v>27</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>31</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G74" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I74" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>24</v>
-      </c>
-      <c r="G75" t="s">
-        <v>27</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>31</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G76" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I76" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77" t="s">
-        <v>27</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>31</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G78" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I78" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>24</v>
-      </c>
-      <c r="G79" t="s">
-        <v>25</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>29</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G80" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I80" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G81" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I81" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J81" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>24</v>
-      </c>
-      <c r="G82" t="s">
-        <v>27</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>31</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>24</v>
-      </c>
-      <c r="G83" t="s">
-        <v>25</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>29</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>24</v>
-      </c>
-      <c r="G84" t="s">
-        <v>27</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>31</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G85" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I85" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>24</v>
-      </c>
-      <c r="G86" t="s">
-        <v>27</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>31</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G87" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I87" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>24</v>
-      </c>
-      <c r="G88" t="s">
-        <v>27</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>31</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G89" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I89" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>24</v>
-      </c>
-      <c r="G90" t="s">
-        <v>27</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>31</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G91" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I91" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>24</v>
-      </c>
-      <c r="G92" t="s">
-        <v>27</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>31</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G93" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I93" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>24</v>
-      </c>
-      <c r="G94" t="s">
-        <v>27</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>31</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G95" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I95" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J95" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>24</v>
-      </c>
-      <c r="G96" t="s">
-        <v>27</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>31</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G97" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I97" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J97" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>24</v>
-      </c>
-      <c r="G98" t="s">
-        <v>27</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>31</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G99" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I99" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>24</v>
-      </c>
-      <c r="G100" t="s">
-        <v>27</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>31</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G101" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I101" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I102" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J102" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>24</v>
-      </c>
-      <c r="G103" t="s">
-        <v>27</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>31</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I104" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J104" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>24</v>
-      </c>
-      <c r="G105" t="s">
-        <v>27</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>31</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I106" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J106" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>24</v>
-      </c>
-      <c r="G107" t="s">
-        <v>25</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>29</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>24</v>
-      </c>
-      <c r="G108" t="s">
-        <v>27</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>31</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I109" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J109" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G110" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I110" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J110" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>24</v>
-      </c>
-      <c r="G111" t="s">
-        <v>27</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>31</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G112" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I112" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J112" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>24</v>
-      </c>
-      <c r="G113" t="s">
-        <v>25</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>29</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G114" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I114" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J114" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>24</v>
-      </c>
-      <c r="G115" t="s">
-        <v>25</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>29</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G116" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I116" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J116" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G117" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="I117" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J117" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>24</v>
-      </c>
-      <c r="G118" t="s">
-        <v>27</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>31</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G119" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="I119" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J119" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>24</v>
-      </c>
-      <c r="G120" t="s">
-        <v>27</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>31</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>24</v>
-      </c>
-      <c r="G121" t="s">
-        <v>27</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>31</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G122" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="I122" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J122" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G123" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I123" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="J123" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>24</v>
-      </c>
-      <c r="G124" t="s">
-        <v>27</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>31</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>24</v>
-      </c>
-      <c r="G125" t="s">
-        <v>25</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>29</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G126" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I126" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="127" spans="1:9">
+      <c r="J126" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G127" t="s">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I127" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J127" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>24</v>
-      </c>
-      <c r="G128" t="s">
-        <v>25</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>29</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G129" t="s">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I129" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J129" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>24</v>
-      </c>
-      <c r="G130" t="s">
-        <v>27</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>31</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G131" t="s">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I131" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J131" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>24</v>
-      </c>
-      <c r="G132" t="s">
-        <v>27</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>31</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G133" t="s">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I133" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J133" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>24</v>
-      </c>
-      <c r="G134" t="s">
-        <v>27</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>31</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G135" t="s">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I135" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>24</v>
-      </c>
-      <c r="G136" t="s">
-        <v>25</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>29</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G137" t="s">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I137" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J137" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>24</v>
-      </c>
-      <c r="G138" t="s">
-        <v>25</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>29</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G139" t="s">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I139" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J139" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G140" t="s">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I140" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>185</v>
+      </c>
+      <c r="J140" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>24</v>
-      </c>
-      <c r="G141" t="s">
-        <v>27</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>31</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G142" t="s">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I142" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>185</v>
+      </c>
+      <c r="J142" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>24</v>
-      </c>
-      <c r="G143" t="s">
-        <v>25</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>29</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G144" t="s">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I144" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>185</v>
+      </c>
+      <c r="J144" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>24</v>
-      </c>
-      <c r="G145" t="s">
-        <v>27</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>31</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G146" t="s">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I146" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J146" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>24</v>
-      </c>
-      <c r="G147" t="s">
-        <v>25</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>29</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G148" t="s">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I148" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J148" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>24</v>
-      </c>
-      <c r="G149" t="s">
-        <v>25</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>29</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G150" t="s">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I150" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J150" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>24</v>
-      </c>
-      <c r="G151" t="s">
-        <v>25</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>29</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G152" t="s">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I152" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J152" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>24</v>
-      </c>
-      <c r="G153" t="s">
-        <v>25</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>29</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G154" t="s">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I154" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J154" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>24</v>
-      </c>
-      <c r="G155" t="s">
-        <v>25</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>29</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G156" t="s">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I156" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J156" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>24</v>
-      </c>
-      <c r="G157" t="s">
-        <v>27</v>
-      </c>
-      <c r="H157" t="s"/>
-      <c r="I157" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
+        <v>31</v>
+      </c>
+      <c r="I157" t="s"/>
+      <c r="J157" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G158" t="s">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="H158" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I158" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J158" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>24</v>
-      </c>
-      <c r="G159" t="s">
-        <v>27</v>
-      </c>
-      <c r="H159" t="s"/>
-      <c r="I159" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
+        <v>31</v>
+      </c>
+      <c r="I159" t="s"/>
+      <c r="J159" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G160" t="s">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I160" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J160" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G161" t="s">
-        <v>206</v>
+        <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I161" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>211</v>
+      </c>
+      <c r="J161" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>24</v>
-      </c>
-      <c r="G162" t="s">
-        <v>25</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>29</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G163" t="s">
-        <v>206</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I163" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>211</v>
+      </c>
+      <c r="J163" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>24</v>
-      </c>
-      <c r="G164" t="s">
-        <v>25</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>29</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>24</v>
-      </c>
-      <c r="G165" t="s">
-        <v>27</v>
-      </c>
-      <c r="H165" t="s"/>
-      <c r="I165" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>31</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>24</v>
-      </c>
-      <c r="G166" t="s">
-        <v>25</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>29</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G167" t="s">
-        <v>206</v>
+        <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I167" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>211</v>
+      </c>
+      <c r="J167" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>24</v>
-      </c>
-      <c r="G168" t="s">
-        <v>27</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>31</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>24</v>
-      </c>
-      <c r="G169" t="s">
-        <v>25</v>
-      </c>
-      <c r="H169" t="s"/>
-      <c r="I169" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
+        <v>29</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>24</v>
-      </c>
-      <c r="G170" t="s">
-        <v>27</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>31</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G171" t="s">
-        <v>206</v>
+        <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I171" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="J171" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
